--- a/Cobit 5.xlsx
+++ b/Cobit 5.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Purpose &amp; Instructions" sheetId="70" r:id="rId1"/>
     <sheet name="Datos de la empresa" sheetId="74" r:id="rId2"/>
     <sheet name="Procesos" sheetId="1" r:id="rId3"/>
     <sheet name="Preguntas" sheetId="75" r:id="rId4"/>
+    <sheet name="Metas Corporaticas " sheetId="76" r:id="rId5"/>
+    <sheet name="Metas TI" sheetId="77" r:id="rId6"/>
+    <sheet name="Mapeo MetasCorporativa-MetasTI" sheetId="78" r:id="rId7"/>
+    <sheet name="Mapeo Metas TI -Procesos" sheetId="79" r:id="rId8"/>
+    <sheet name="Mapeo Metas Corpor-Preguntas" sheetId="80" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="309">
   <si>
     <t>Nombre del proceso</t>
   </si>
@@ -625,12 +633,517 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Dimensión del CMI</t>
+  </si>
+  <si>
+    <t>Meta Corporativa</t>
+  </si>
+  <si>
+    <t>Relación con los Objetivos de Gobierno</t>
+  </si>
+  <si>
+    <t>Realización de
+Beneficios</t>
+  </si>
+  <si>
+    <t>Optimización de
+Riesgos</t>
+  </si>
+  <si>
+    <t>Optimización de
+Recursos</t>
+  </si>
+  <si>
+    <t>Valor para las partes interesadas de las Inversiones de Negocio</t>
+  </si>
+  <si>
+    <t>Cartera de productos y servicios competitivos</t>
+  </si>
+  <si>
+    <t>Riesgos de negocio gestionados (salvaguarda de activo)</t>
+  </si>
+  <si>
+    <t>Cumplimiento de leyes y regulaciones externas</t>
+  </si>
+  <si>
+    <t>Transparencia financiera</t>
+  </si>
+  <si>
+    <t>Cultura de servicio orientada al cliente</t>
+  </si>
+  <si>
+    <t>Continuidad y disponibilidad del servicio de negocio</t>
+  </si>
+  <si>
+    <t>Respuestas ágiles a un entorno de negocio cambiante</t>
+  </si>
+  <si>
+    <t>Toma estratégica de Decisiones basadas en información</t>
+  </si>
+  <si>
+    <t>Optimización de costes de entrega del servicio</t>
+  </si>
+  <si>
+    <t>Optimización de la funcionalidad de los procesos de negocio</t>
+  </si>
+  <si>
+    <t>Optimización de los costes de los procesos de negocio</t>
+  </si>
+  <si>
+    <t>Programas gestionados de cambio en el negocio</t>
+  </si>
+  <si>
+    <t>Productividad operacional y de los empleados</t>
+  </si>
+  <si>
+    <t>Cumplimiento con las políticas internas</t>
+  </si>
+  <si>
+    <t>Personas preparadas y motivadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultura de innovación del producto y del negocio </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financiera </t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Interna</t>
+  </si>
+  <si>
+    <t>Aprendizaje y Crecimiento</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alineamiento de TI y la estrategia de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cumplimiento y soporte de la TI al cumplimiento del negocio de las leyes y regulaciones externas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compromiso de la dirección ejecutiva para tomar decisiones relacionadas con TI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Riesgos de negocio relacionados con las TI gestionados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realización de beneficios del portafolio de Inversiones y Servicios relacionados con las TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transparencia de los costes, beneficios y riesgos de las TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entrega de servicios de TI de acuerdo a los requisitos del negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uso adecuado de aplicaciones, información y soluciones tecnológicas</t>
+  </si>
+  <si>
+    <t>Agilidad de las TI</t>
+  </si>
+  <si>
+    <t>Seguridad de la información, infraestructuras de procesamiento y aplicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optimización de activos, recursos y capacidades de las TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capacitación y soporte de procesos de negocio integrando aplicaciones y tecnología en procesos de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entrega de Programas que proporcionen beneficios a tiempo, dentro del presupuesto y satisfaciendo los requisitos y normas de calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Disponibilidad de información útil y relevante para la toma de decisiones </t>
+  </si>
+  <si>
+    <t>Cumplimiento de TI con las políticas internas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal del negocio y de las TI competente y motivado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conocimiento, experiencia e iniciativas para la innovación de negocio</t>
+  </si>
+  <si>
+    <t>Financiera</t>
+  </si>
+  <si>
+    <t>Aprendizaje y Creciiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapeo entre las Metas Corporativas de COBIT 5 y las Metas Relacionadas con las TI </t>
+  </si>
+  <si>
+    <t>Meta relacionada con las TI</t>
+  </si>
+  <si>
+    <t>Aprendizaje y 
+Crecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alineamiento de TI y la estrategia de negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cumplimiento y soporte de la TI al
+ cumplimiento del negocio de las leyes y
+ regulaciones externas</t>
+  </si>
+  <si>
+    <t>Compromiso de la dirección ejecutiva para
+ tomar decisiones relacionadas con TI</t>
+  </si>
+  <si>
+    <t>Riesgos de negocio relacionados con las TI
+ gestionados</t>
+  </si>
+  <si>
+    <t>Realización de beneficios del portafolio de
+ Inversiones y Servicios relacionados con
+ las TI</t>
+  </si>
+  <si>
+    <t>Transparencia de los costes, beneficios y
+ riesgos de las TI</t>
+  </si>
+  <si>
+    <t>Entrega de servicios de TI de acuerdo a los
+ requisitos del negocio</t>
+  </si>
+  <si>
+    <t>Uso adecuado de aplicaciones, 
+información y soluciones tecnológicas</t>
+  </si>
+  <si>
+    <t>Seguridad de la información, infraestructuras
+ de procesamiento y aplicaciones</t>
+  </si>
+  <si>
+    <t>Optimización de activos, recursos y
+ capacidades de las TI</t>
+  </si>
+  <si>
+    <t>Capacitación y soporte de procesos
+ de negocio integrando aplicaciones y
+ tecnología en procesos de negocio</t>
+  </si>
+  <si>
+    <t>Entrega de Programas que proporcionen
+ beneficios a tiempo, dentro del
+ presupuesto y satisfaciendo los requisitos
+ y normas de calidad</t>
+  </si>
+  <si>
+    <t>Disponibilidad de información útil y
+ relevante para la toma de decisiones</t>
+  </si>
+  <si>
+    <t>Aprendizaje y crecimiento</t>
+  </si>
+  <si>
+    <t>Personal del negocio y de las TI
+ competente y motivado</t>
+  </si>
+  <si>
+    <t>Conocimiento, experiencia e iniciativas
+ para la innovación de negocio</t>
+  </si>
+  <si>
+    <t>Mapeo entre las Metas Relacionadas con las TI de COBIT 5 y los Procesos</t>
+  </si>
+  <si>
+    <t>Metas relacionadas con las TI</t>
+  </si>
+  <si>
+    <t>Procesos de cobit 5</t>
+  </si>
+  <si>
+    <t>Aprendizaje y Conocimiento</t>
+  </si>
+  <si>
+    <t>Evaluar, Orientar y Supervisar</t>
+  </si>
+  <si>
+    <t>Asegurar el Establecimiento y Mantenimiento del Marco de Gobierno</t>
+  </si>
+  <si>
+    <t>EDM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asegurar la Entrega  de Beneficios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asegurar la Optimización  del Riesgo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asegurar la Optimización  de los Recursos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asegurar la Transparencia hacia las partes interesadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APO01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar el Marco  de Gestión de TI </t>
+  </si>
+  <si>
+    <t>APO02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Estrategia </t>
+  </si>
+  <si>
+    <t>Gestionar la Arquitectura Empresarial</t>
+  </si>
+  <si>
+    <t>Gestionar la Innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar el portafolio </t>
+  </si>
+  <si>
+    <t>Gestionar el Presupuesto y los Costes</t>
+  </si>
+  <si>
+    <t>Gestionar los Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Gestionar las Relaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar los Acuerdos de Servicio </t>
+  </si>
+  <si>
+    <t>Gestionar los Proveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Calidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar el Riesgo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Seguridad </t>
+  </si>
+  <si>
+    <t>Construcción, Adquisición e Implementación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar los Programas  y Proyectos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Definición  de Requisitos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Identificación y la Construcción de Soluciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Disponibilidad  y la Capacidad   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la introducción  de Cambios Organizativos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar los Cambios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Aceptación del Cambio y de la Transición   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAI08 </t>
+  </si>
+  <si>
+    <t>Gestionar el Conocimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar los Activos </t>
+  </si>
+  <si>
+    <t>Gestionar la Configuración</t>
+  </si>
+  <si>
+    <t>Entregar, dar Servicio y Soporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar las Operaciones </t>
+  </si>
+  <si>
+    <t>Gestionar las Peticiones  y los Incidentes del Servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar los Problemas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar la Continuidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar los Servicios  de Seguridad </t>
+  </si>
+  <si>
+    <t>Gestionar los Controles  de los Procesos del Negocio</t>
+  </si>
+  <si>
+    <t>Supervisión, Evaluación y Verificación</t>
+  </si>
+  <si>
+    <t>Supervisar, Evaluar y Valorar Rendimiento y Conformidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisar, Evaluar y Valorar el Sistema de Control Interno </t>
+  </si>
+  <si>
+    <t>Supervisar, Evaluar y Valorar la Conformidad con los Requerimientos Externos</t>
+  </si>
+  <si>
+    <t>Mapeo entre las Metas Corporativas de COBIT 5 y las Preguntas del Gobierno y la Gestión</t>
+  </si>
+  <si>
+    <t>Metas Corporaticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor para los Interesados  de las Inversiones de Negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartera de productos y servicios competitivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riesgos de negocio gestionados (salvaguarda de activos) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumplimiento de leyes  y regulaciones externas </t>
+  </si>
+  <si>
+    <t>Cultura de servicio orientada  al cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuidad y disponibilidad  del servicio de negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuestas ágiles a un entorno de negocio cambiante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma estratégica de Decisiones basada en Información </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimización de los costes  de los procesos de negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimización de la funcionalidad de los procesos de negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas gestionados  de cambio en el negocio </t>
+  </si>
+  <si>
+    <t>Productividad operacional  y de los empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumplimiento con las políticas internas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumplimiento con políticas internas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personas preparadas  y motivadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultura de innovación  de producto y negocio </t>
+  </si>
+  <si>
+    <t>Necesidades dela parte interesadad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo se consigue valor mediante el uso de TI? 
+¿ Está el usuario final satisfecho con la calidad
+ del servicio de TI? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+¿Cómo se gestiona el rendimiento de TI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+¿Cómo se puede explotar mejor la tecnología de red para conseguir nuevas oportunidades estratégicas? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo puedo construir y estructurar mejor mi departamento de TI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto dependo de mis proveedores externos? ¿Cómo de bien están siendo gestionados los acuerdos de externalización de TI? ¿Cómo puedo verificarlos sobre proveedores externos? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son los requisitos (de control) para la información? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿He contemplado todo los riesgos relacionados con TI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Estoy ejecutando una operación de TI eficiente y robusta? </t>
+  </si>
+  <si>
+    <t>¿Cómo se controla el coste de TI? ¿Cómo se usan los recursos de TI en la manera más efectiva y eficiente? ¿Cuáles son las opciones de aprovisionamiento más efectivas y eficientes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tengo suficiente personal para TI? ¿Cómo puedo desarrollar y mantener sus habilidades y cómo gestiono su rendimiento? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo consigo confianza sobre TI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Está bien securizada la información que se está procesando? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo se puede mejorar la capacidad de respuesta del negocio mediante un entorno de IT más flexible? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Fracasan los proyectos de TI en proporcionar lo que habían prometido? Si es así, ¿por qué permanece la TI en el camino de ejecutar la estrategia de negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo es de crítica la TI para para la sostenibilidad de la empresa? ¿Qué pasaría si la TI no estuviera disponible? </t>
+  </si>
+  <si>
+    <t>¿En cuánto han excedido de media los presupuestos de operación de TI? ¿Con qué frecuencia y cuánto se salen del presupuesto los proyectos de TI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué parte del esfuerzo de TI se dedica a apagar fuegos en lugar de facilitar las mejoras del negocio? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Son suficientes los recursos y la infraestructura de TI disponibles para conseguir los objetivos estratégicos de empresa requeridos? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto se tarda en la toma de decisiones importantes de TI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Son transparentes el esfuerzo y las inversiones totales en TI? </t>
+  </si>
+  <si>
+    <t>¿Respalda TI a la empresa en el cumplimiento de la normativa y los niveles de  servicio? ¿Cómo puedo saber si se cumple con todas las normas aplicables?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,8 +1258,93 @@
       <color theme="0"/>
       <name val="HelveticaNeue-BoldCond"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="HelveticaNeue-BoldCond"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tempus Sans ITC"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tempus Sans ITC"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Tempus Sans ITC"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,8 +1381,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1150,11 +1766,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1252,6 +2042,62 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1267,6 +2113,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1285,12 +2137,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,7 +2209,133 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1379,6 +2351,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INICIO"/>
+      <sheetName val="menu"/>
+      <sheetName val="PreEvaluacion"/>
+      <sheetName val="Metas coorporativas"/>
+      <sheetName val="Meta corprativa-Metas TI"/>
+      <sheetName val="metas TI- Procesos cobit"/>
+      <sheetName val="Mapeo- metas TI-procesos"/>
+      <sheetName val="Mapeo partes interesadas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="I7" t="str">
+            <v xml:space="preserve"> Alineamiento de TI y la estrategia de negocio</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8" t="str">
+            <v xml:space="preserve"> Cumplimiento y soporte de la TI al cumplimiento del negocio de las leyes y regulaciones externas</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9" t="str">
+            <v xml:space="preserve"> Compromiso de la dirección ejecutiva para tomar decisiones relacionadas con TI  </v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v xml:space="preserve"> Riesgos de negocio relacionados con las TI gestionados</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11" t="str">
+            <v xml:space="preserve"> Realización de beneficios del portafolio de Inversiones y Servicios relacionados con las TI</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12" t="str">
+            <v xml:space="preserve"> Transparencia de los costes, beneficios y riesgos de las TI</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13" t="str">
+            <v xml:space="preserve"> Entrega de servicios de TI de acuerdo a los requisitos del negocio</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14" t="str">
+            <v xml:space="preserve"> Uso adecuado de aplicaciones, información y soluciones tecnológicas</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>Agilidad de las TI</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>Seguridad de la información, infraestructuras de procesamiento y aplicaciones</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v xml:space="preserve"> Optimización de activos, recursos y capacidades de las TI</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v xml:space="preserve"> Capacitación y soporte de procesos de negocio integrando aplicaciones y tecnología en procesos de negocio</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v xml:space="preserve"> Entrega de Programas que proporcionen beneficios a tiempo, dentro del presupuesto y satisfaciendo los requisitos y normas de calidad</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v xml:space="preserve"> Disponibilidad de información útil y relevante para la toma de decisiones </v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>Cumplimiento de TI con las políticas internas</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v xml:space="preserve"> Personal del negocio y de las TI competente y motivado</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v xml:space="preserve"> Conocimiento, experiencia e iniciativas para la innovación de negocio</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
@@ -1792,601 +2877,601 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="46" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="52" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="80"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="50" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53" t="s">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56" t="s">
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="52" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="80"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="52" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="54"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="80"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="52" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="80"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="52" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="54"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="80"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="55" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2452,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2465,17 +3550,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:9" ht="30.75" thickBot="1">
@@ -2508,10 +3593,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="12"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2596,10 +3681,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2804,10 +3889,10 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="61"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2967,10 +4052,10 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="12"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3070,10 +4155,10 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="61"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="12"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3145,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3155,34 +4240,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="35" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3190,15 +4275,15 @@
       <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
@@ -3206,15 +4291,15 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
@@ -3222,15 +4307,15 @@
       <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
@@ -3238,15 +4323,15 @@
       <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
@@ -3254,15 +4339,15 @@
       <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
@@ -3270,15 +4355,15 @@
       <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
@@ -3286,15 +4371,15 @@
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
@@ -3302,15 +4387,15 @@
       <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
@@ -3318,15 +4403,15 @@
       <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
@@ -3334,15 +4419,15 @@
       <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
@@ -3350,15 +4435,15 @@
       <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
@@ -3366,15 +4451,15 @@
       <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
@@ -3382,15 +4467,15 @@
       <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
@@ -3398,15 +4483,15 @@
       <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
@@ -3414,15 +4499,15 @@
       <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
@@ -3430,15 +4515,15 @@
       <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
@@ -3446,15 +4531,15 @@
       <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
@@ -3462,15 +4547,15 @@
       <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
@@ -3478,15 +4563,15 @@
       <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="32"/>
       <c r="J22" s="15"/>
     </row>
@@ -3494,15 +4579,15 @@
       <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="32"/>
       <c r="J23" s="15"/>
     </row>
@@ -3510,15 +4595,15 @@
       <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="32"/>
       <c r="J24" s="15"/>
     </row>
@@ -3526,15 +4611,15 @@
       <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="32"/>
       <c r="J25" s="15"/>
     </row>
@@ -3542,15 +4627,15 @@
       <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="32"/>
       <c r="J26" s="15"/>
     </row>
@@ -3558,15 +4643,15 @@
       <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="32"/>
       <c r="J27" s="15"/>
     </row>
@@ -3574,15 +4659,15 @@
       <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="32"/>
       <c r="J28" s="15"/>
       <c r="L28" s="30"/>
@@ -3591,15 +4676,15 @@
       <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="32"/>
       <c r="J29" s="15"/>
     </row>
@@ -3607,15 +4692,15 @@
       <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
     </row>
@@ -3623,15 +4708,15 @@
       <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
     </row>
@@ -3639,15 +4724,15 @@
       <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
     </row>
@@ -3655,29 +4740,29 @@
       <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="33"/>
       <c r="J34" s="15"/>
     </row>
@@ -3685,15 +4770,15 @@
       <c r="A35" s="15">
         <v>1</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="31"/>
       <c r="J35" s="15"/>
     </row>
@@ -3701,15 +4786,15 @@
       <c r="A36" s="15">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="31"/>
       <c r="J36" s="15"/>
     </row>
@@ -3717,15 +4802,15 @@
       <c r="A37" s="15">
         <v>3</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="66"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="34"/>
       <c r="J37" s="15"/>
     </row>
@@ -3733,15 +4818,15 @@
       <c r="A38" s="15">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="66"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="31"/>
       <c r="J38" s="15"/>
     </row>
@@ -3788,4 +4873,3449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18" customHeight="1">
+      <c r="A2" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="1:11" ht="36" customHeight="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="44">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="44">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="99"/>
+      <c r="B7" s="44">
+        <v>4</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="99"/>
+      <c r="B8" s="44">
+        <v>5</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="44">
+        <v>6</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="44">
+        <v>7</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25">
+      <c r="A11" s="99"/>
+      <c r="B11" s="44">
+        <v>8</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25">
+      <c r="A12" s="99"/>
+      <c r="B12" s="44">
+        <v>9</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="44">
+        <v>10</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="44">
+        <v>11</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25">
+      <c r="A15" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="44">
+        <v>12</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="44">
+        <v>13</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.25">
+      <c r="A17" s="99"/>
+      <c r="B17" s="44">
+        <v>14</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="44">
+        <v>15</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="42"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25">
+      <c r="A19" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="44">
+        <v>16</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" customHeight="1">
+      <c r="A20" s="99"/>
+      <c r="B20" s="44">
+        <v>17</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="6" max="6" width="86.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="45">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I7</f>
+        <v xml:space="preserve"> Alineamiento de TI y la estrategia de negocio</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="99"/>
+      <c r="B5" s="45">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I8</f>
+        <v xml:space="preserve"> Cumplimiento y soporte de la TI al cumplimiento del negocio de las leyes y regulaciones externas</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="99"/>
+      <c r="B6" s="45">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I9</f>
+        <v xml:space="preserve"> Compromiso de la dirección ejecutiva para tomar decisiones relacionadas con TI  </v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="99"/>
+      <c r="B7" s="45">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I10</f>
+        <v xml:space="preserve"> Riesgos de negocio relacionados con las TI gestionados</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="99"/>
+      <c r="B8" s="45">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I11</f>
+        <v xml:space="preserve"> Realización de beneficios del portafolio de Inversiones y Servicios relacionados con las TI</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="99"/>
+      <c r="B9" s="45">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I12</f>
+        <v xml:space="preserve"> Transparencia de los costes, beneficios y riesgos de las TI</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="45">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I13</f>
+        <v xml:space="preserve"> Entrega de servicios de TI de acuerdo a los requisitos del negocio</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="99"/>
+      <c r="B11" s="45">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I14</f>
+        <v xml:space="preserve"> Uso adecuado de aplicaciones, información y soluciones tecnológicas</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="45">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I15</f>
+        <v>Agilidad de las TI</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="99"/>
+      <c r="B13" s="45">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I16</f>
+        <v>Seguridad de la información, infraestructuras de procesamiento y aplicaciones</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="99"/>
+      <c r="B14" s="45">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I17</f>
+        <v xml:space="preserve"> Optimización de activos, recursos y capacidades de las TI</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="99"/>
+      <c r="B15" s="45">
+        <v>12</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I18</f>
+        <v xml:space="preserve"> Capacitación y soporte de procesos de negocio integrando aplicaciones y tecnología en procesos de negocio</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="99"/>
+      <c r="B16" s="45">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I19</f>
+        <v xml:space="preserve"> Entrega de Programas que proporcionen beneficios a tiempo, dentro del presupuesto y satisfaciendo los requisitos y normas de calidad</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="99"/>
+      <c r="B17" s="45">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I20</f>
+        <v xml:space="preserve"> Disponibilidad de información útil y relevante para la toma de decisiones </v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="99"/>
+      <c r="B18" s="45">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I21</f>
+        <v>Cumplimiento de TI con las políticas internas</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="45">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I22</f>
+        <v xml:space="preserve"> Personal del negocio y de las TI competente y motivado</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="99"/>
+      <c r="B20" s="45">
+        <v>17</v>
+      </c>
+      <c r="C20" s="15" t="str">
+        <f>'[1]Metas coorporativas'!I23</f>
+        <v xml:space="preserve"> Conocimiento, experiencia e iniciativas para la innovación de negocio</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+    </row>
+    <row r="3" spans="1:20" ht="302.25">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>2</v>
+      </c>
+      <c r="F4" s="49">
+        <v>3</v>
+      </c>
+      <c r="G4" s="49">
+        <v>4</v>
+      </c>
+      <c r="H4" s="49">
+        <v>5</v>
+      </c>
+      <c r="I4" s="49">
+        <v>6</v>
+      </c>
+      <c r="J4" s="49">
+        <v>7</v>
+      </c>
+      <c r="K4" s="49">
+        <v>8</v>
+      </c>
+      <c r="L4" s="49">
+        <v>9</v>
+      </c>
+      <c r="M4" s="49">
+        <v>10</v>
+      </c>
+      <c r="N4" s="49">
+        <v>11</v>
+      </c>
+      <c r="O4" s="49">
+        <v>12</v>
+      </c>
+      <c r="P4" s="49">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>14</v>
+      </c>
+      <c r="R4" s="49">
+        <v>15</v>
+      </c>
+      <c r="S4" s="49">
+        <v>16</v>
+      </c>
+      <c r="T4" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="46.5" customHeight="1">
+      <c r="A5" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="T5" s="113"/>
+    </row>
+    <row r="6" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A6" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="39">
+      <c r="A7" s="114"/>
+      <c r="B7" s="50">
+        <v>2</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="31.5" customHeight="1">
+      <c r="A8" s="114"/>
+      <c r="B8" s="50">
+        <v>3</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A9" s="114"/>
+      <c r="B9" s="50">
+        <v>4</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A10" s="114"/>
+      <c r="B10" s="50">
+        <v>5</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="50">
+        <v>6</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A12" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="50">
+        <v>7</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" ht="27" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="50">
+        <v>8</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="50">
+        <v>9</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="50">
+        <v>10</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="50">
+        <v>11</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+    </row>
+    <row r="17" spans="1:20" ht="23.25" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="50">
+        <v>12</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" ht="27" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="50">
+        <v>13</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:20" ht="27" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="50">
+        <v>14</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="50">
+        <v>15</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A21" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="50">
+        <v>16</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+    </row>
+    <row r="22" spans="1:20" ht="31.5" customHeight="1">
+      <c r="A22" s="112"/>
+      <c r="B22" s="50">
+        <v>17</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X42"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V84" sqref="V84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="124" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56"/>
+    </row>
+    <row r="3" spans="1:24" ht="248.25">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="T3" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="54">
+        <v>1</v>
+      </c>
+      <c r="F4" s="54">
+        <v>2</v>
+      </c>
+      <c r="G4" s="54">
+        <v>3</v>
+      </c>
+      <c r="H4" s="54">
+        <v>4</v>
+      </c>
+      <c r="I4" s="54">
+        <v>5</v>
+      </c>
+      <c r="J4" s="54">
+        <v>6</v>
+      </c>
+      <c r="K4" s="54">
+        <v>7</v>
+      </c>
+      <c r="L4" s="54">
+        <v>8</v>
+      </c>
+      <c r="M4" s="54">
+        <v>9</v>
+      </c>
+      <c r="N4" s="54">
+        <v>10</v>
+      </c>
+      <c r="O4" s="54">
+        <v>11</v>
+      </c>
+      <c r="P4" s="54">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>13</v>
+      </c>
+      <c r="R4" s="54">
+        <v>14</v>
+      </c>
+      <c r="S4" s="54">
+        <v>15</v>
+      </c>
+      <c r="T4" s="54">
+        <v>16</v>
+      </c>
+      <c r="U4" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5">
+      <c r="B5" s="128" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="128" t="s">
+        <v>223</v>
+      </c>
+      <c r="U5" s="128"/>
+    </row>
+    <row r="6" spans="1:24" ht="49.5" customHeight="1">
+      <c r="B6" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+    </row>
+    <row r="7" spans="1:24" ht="39" customHeight="1">
+      <c r="B7" s="126"/>
+      <c r="C7" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+    </row>
+    <row r="8" spans="1:24" ht="33" customHeight="1">
+      <c r="B8" s="126"/>
+      <c r="C8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+    </row>
+    <row r="9" spans="1:24" ht="33" customHeight="1">
+      <c r="B9" s="126"/>
+      <c r="C9" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+    </row>
+    <row r="10" spans="1:24" ht="35.25" customHeight="1">
+      <c r="B10" s="126"/>
+      <c r="C10" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+    </row>
+    <row r="11" spans="1:24" ht="30" customHeight="1">
+      <c r="B11" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+    </row>
+    <row r="12" spans="1:24" ht="29.25" customHeight="1">
+      <c r="B12" s="126"/>
+      <c r="C12" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+    </row>
+    <row r="13" spans="1:24" ht="33.75" customHeight="1">
+      <c r="B13" s="126"/>
+      <c r="C13" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+    </row>
+    <row r="14" spans="1:24" ht="21" customHeight="1">
+      <c r="B14" s="126"/>
+      <c r="C14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+    </row>
+    <row r="15" spans="1:24" ht="21.75" customHeight="1">
+      <c r="B15" s="126"/>
+      <c r="C15" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+    </row>
+    <row r="16" spans="1:24" ht="27.75" customHeight="1">
+      <c r="B16" s="126"/>
+      <c r="C16" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+    </row>
+    <row r="17" spans="2:21" ht="29.25" customHeight="1">
+      <c r="B17" s="126"/>
+      <c r="C17" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+    </row>
+    <row r="18" spans="2:21" ht="27" customHeight="1">
+      <c r="B18" s="126"/>
+      <c r="C18" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+    </row>
+    <row r="19" spans="2:21" ht="27.75" customHeight="1">
+      <c r="B19" s="126"/>
+      <c r="C19" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+    </row>
+    <row r="20" spans="2:21" ht="26.25" customHeight="1">
+      <c r="B20" s="126"/>
+      <c r="C20" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+    </row>
+    <row r="21" spans="2:21" ht="19.5" customHeight="1">
+      <c r="B21" s="126"/>
+      <c r="C21" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+    </row>
+    <row r="22" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B22" s="126"/>
+      <c r="C22" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+    </row>
+    <row r="23" spans="2:21" ht="24" customHeight="1">
+      <c r="B23" s="126"/>
+      <c r="C23" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+    </row>
+    <row r="24" spans="2:21" ht="28.5" customHeight="1">
+      <c r="B24" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+    </row>
+    <row r="25" spans="2:21" ht="28.5" customHeight="1">
+      <c r="B25" s="120"/>
+      <c r="C25" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+    </row>
+    <row r="26" spans="2:21" ht="25.5" customHeight="1">
+      <c r="B26" s="120"/>
+      <c r="C26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+    </row>
+    <row r="27" spans="2:21" ht="29.25" customHeight="1">
+      <c r="B27" s="120"/>
+      <c r="C27" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+    </row>
+    <row r="28" spans="2:21" ht="26.25" customHeight="1">
+      <c r="B28" s="120"/>
+      <c r="C28" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+    </row>
+    <row r="29" spans="2:21" ht="25.5" customHeight="1">
+      <c r="B29" s="120"/>
+      <c r="C29" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+    </row>
+    <row r="30" spans="2:21" ht="28.5" customHeight="1">
+      <c r="B30" s="120"/>
+      <c r="C30" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+    </row>
+    <row r="31" spans="2:21" ht="32.25" customHeight="1">
+      <c r="B31" s="120"/>
+      <c r="C31" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="120"/>
+      <c r="C32" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+    </row>
+    <row r="33" spans="2:21" ht="23.25" customHeight="1">
+      <c r="B33" s="120"/>
+      <c r="C33" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+    </row>
+    <row r="34" spans="2:21" ht="18" customHeight="1">
+      <c r="B34" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+    </row>
+    <row r="35" spans="2:21" ht="27.75" customHeight="1">
+      <c r="B35" s="120"/>
+      <c r="C35" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+    </row>
+    <row r="36" spans="2:21" ht="27" customHeight="1">
+      <c r="B36" s="120"/>
+      <c r="C36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+    </row>
+    <row r="37" spans="2:21" ht="27.75" customHeight="1">
+      <c r="B37" s="120"/>
+      <c r="C37" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+    </row>
+    <row r="38" spans="2:21" ht="28.5" customHeight="1">
+      <c r="B38" s="120"/>
+      <c r="C38" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+    </row>
+    <row r="39" spans="2:21" ht="47.25" customHeight="1">
+      <c r="B39" s="120"/>
+      <c r="C39" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+    </row>
+    <row r="40" spans="2:21" ht="40.5" customHeight="1">
+      <c r="B40" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+    </row>
+    <row r="41" spans="2:21" ht="40.5" customHeight="1">
+      <c r="B41" s="120"/>
+      <c r="C41" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+    </row>
+    <row r="42" spans="2:21" ht="27.75" customHeight="1">
+      <c r="B42" s="120"/>
+      <c r="C42" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:U2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="B24:B33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="15" width="3.140625" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75">
+      <c r="A1" s="131" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75">
+      <c r="A2" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="130" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+    </row>
+    <row r="3" spans="1:20" ht="306">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="133" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="133" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="133" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="133" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" s="133" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="133" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" s="133" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="133" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q3" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="R3" s="133" t="s">
+        <v>284</v>
+      </c>
+      <c r="S3" s="133" t="s">
+        <v>285</v>
+      </c>
+      <c r="T3" s="133" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="26.25" customHeight="1">
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="135">
+        <v>1</v>
+      </c>
+      <c r="E4" s="135">
+        <v>2</v>
+      </c>
+      <c r="F4" s="135">
+        <v>3</v>
+      </c>
+      <c r="G4" s="135">
+        <v>4</v>
+      </c>
+      <c r="H4" s="135">
+        <v>5</v>
+      </c>
+      <c r="I4" s="135">
+        <v>6</v>
+      </c>
+      <c r="J4" s="135">
+        <v>7</v>
+      </c>
+      <c r="K4" s="135">
+        <v>8</v>
+      </c>
+      <c r="L4" s="135">
+        <v>9</v>
+      </c>
+      <c r="M4" s="135">
+        <v>10</v>
+      </c>
+      <c r="N4" s="135">
+        <v>11</v>
+      </c>
+      <c r="O4" s="135">
+        <v>12</v>
+      </c>
+      <c r="P4" s="135">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="135">
+        <v>14</v>
+      </c>
+      <c r="R4" s="135">
+        <v>15</v>
+      </c>
+      <c r="S4" s="135">
+        <v>16</v>
+      </c>
+      <c r="T4" s="135">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="57.75" customHeight="1">
+      <c r="A5" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A6" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="32.25" customHeight="1">
+      <c r="A7" s="138" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="33" customHeight="1">
+      <c r="A8" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" ht="63.75" customHeight="1">
+      <c r="A9" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A10" s="138" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" customHeight="1">
+      <c r="A11" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" customHeight="1">
+      <c r="A12" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" ht="45" customHeight="1">
+      <c r="A13" s="138" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" ht="31.5" customHeight="1">
+      <c r="A14" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" ht="22.5" customHeight="1">
+      <c r="A15" s="138" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A16" s="138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" ht="32.25" customHeight="1">
+      <c r="A17" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:21" ht="49.5" customHeight="1">
+      <c r="A18" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" ht="36.75" customHeight="1">
+      <c r="A19" s="138" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:21" ht="32.25" customHeight="1">
+      <c r="A20" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:21" ht="47.25" customHeight="1">
+      <c r="A21" s="138" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+    </row>
+    <row r="22" spans="1:21" ht="32.25" customHeight="1">
+      <c r="A22" s="138" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:21" ht="51.75" customHeight="1">
+      <c r="A23" s="138" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:21" ht="27" customHeight="1">
+      <c r="A24" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:21" ht="30" customHeight="1">
+      <c r="A25" s="138" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" ht="44.25" customHeight="1">
+      <c r="A26" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="142"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>